--- a/2023-5-7_productivity_blister_pack_2_workers.xlsx
+++ b/2023-5-7_productivity_blister_pack_2_workers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>Time (minutes)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,10 +451,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19:07</t>
+          <t>21:09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21:09</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
